--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104005F-3828-4A10-AD90-2FDF25C8E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE137A9-95FC-493A-ACFC-175F18034C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,14 @@
   </si>
   <si>
     <t>천구베기 피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무(극)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호(극)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1823,6 +1831,122 @@
         <v>0</v>
       </c>
       <c r="I41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>0.05</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>61</v>
+      </c>
+      <c r="C43">
+        <v>0.05</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>0.05</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>61</v>
+      </c>
+      <c r="C45">
+        <v>0.05</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>100</v>
       </c>
     </row>
